--- a/test/diff_test_new.xlsx
+++ b/test/diff_test_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="19900" windowHeight="14900"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="26900" windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="209">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -171,9 +171,6 @@
     <t>J11</t>
   </si>
   <si>
-    <t>micro_sd_holder_pp</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
@@ -600,15 +597,6 @@
     <t>USB Power Supply swtich HI-SIDE dual.</t>
   </si>
   <si>
-    <t>U6, U7</t>
-  </si>
-  <si>
-    <t>TVS Array (WE 82400152)</t>
-  </si>
-  <si>
-    <t>SOT-563</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -639,9 +627,6 @@
     <t>Wifi &amp; Bluethoot module</t>
   </si>
   <si>
-    <t>WR-CRD Micro SD differ</t>
-  </si>
-  <si>
     <t>R9, R53, R72</t>
   </si>
   <si>
@@ -655,6 +640,12 @@
   </si>
   <si>
     <t>Ceramic X7R 25V</t>
+  </si>
+  <si>
+    <t>differ</t>
+  </si>
+  <si>
+    <t>U99</t>
   </si>
 </sst>
 </file>
@@ -800,8 +791,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -830,32 +823,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1150,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1160,210 +1155,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>75</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>52</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>187</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
@@ -1391,14 +1386,14 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5">
@@ -1554,10 +1549,10 @@
         <v>28</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1568,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1588,16 +1583,16 @@
         <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1608,16 +1603,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1628,27 +1623,27 @@
         <v>1</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5">
@@ -1658,27 +1653,27 @@
         <v>1</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="6" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5">
@@ -1688,16 +1683,16 @@
         <v>15</v>
       </c>
       <c r="C48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1708,16 +1703,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="E49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1728,16 +1723,16 @@
         <v>1</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="E50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1748,16 +1743,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="E51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28">
@@ -1768,16 +1763,16 @@
         <v>26</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="E52" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1788,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="E53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1808,16 +1803,16 @@
         <v>1</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="E54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1828,16 +1823,16 @@
         <v>3</v>
       </c>
       <c r="C55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="E55" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1848,16 +1843,16 @@
         <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="E56" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1868,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1888,16 +1883,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1908,16 +1903,16 @@
         <v>5</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="E59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1928,27 +1923,27 @@
         <v>6</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5">
@@ -1958,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1978,16 +1973,16 @@
         <v>2</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="E63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1998,16 +1993,16 @@
         <v>2</v>
       </c>
       <c r="C64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E64" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2018,16 +2013,16 @@
         <v>30</v>
       </c>
       <c r="C65" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="E65" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2038,16 +2033,16 @@
         <v>3</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2058,16 +2053,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2078,16 +2073,16 @@
         <v>1</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2098,16 +2093,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="E69" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2118,16 +2113,16 @@
         <v>2</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2138,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2158,27 +2153,27 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F72" s="6" t="s">
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5">
@@ -2188,16 +2183,16 @@
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2208,16 +2203,16 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2228,16 +2223,16 @@
         <v>5</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2248,27 +2243,27 @@
         <v>1</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="E77" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" s="6" t="s">
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5">
@@ -2278,16 +2273,16 @@
         <v>2</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2298,16 +2293,16 @@
         <v>1</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="E80" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2318,16 +2313,16 @@
         <v>1</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2338,16 +2333,16 @@
         <v>3</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2358,27 +2353,27 @@
         <v>14</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="E83" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="5">
@@ -2388,27 +2383,27 @@
         <v>1</v>
       </c>
       <c r="C85" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F85" s="6" t="s">
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="5">
@@ -2418,16 +2413,16 @@
         <v>1</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2438,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2458,16 +2453,16 @@
         <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2478,16 +2473,16 @@
         <v>1</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="F90" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="28">
@@ -2498,16 +2493,16 @@
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2518,16 +2513,16 @@
         <v>1</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2538,16 +2533,16 @@
         <v>1</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2558,36 +2553,36 @@
         <v>1</v>
       </c>
       <c r="C94" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2604,10 +2599,10 @@
         <v>197</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2618,16 +2613,16 @@
         <v>1</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2638,51 +2633,51 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A86:F86"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A73:F73"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
